--- a/data/pca/factorExposure/factorExposure_2018-06-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01891379555743486</v>
+        <v>0.02076590786512602</v>
       </c>
       <c r="C2">
-        <v>-0.01780866427173008</v>
+        <v>-0.01916258771954843</v>
       </c>
       <c r="D2">
-        <v>0.009000298695623802</v>
+        <v>-0.02065531309031576</v>
       </c>
       <c r="E2">
-        <v>0.01764314684663072</v>
+        <v>0.0141430898334564</v>
       </c>
       <c r="F2">
-        <v>0.1129538501039247</v>
+        <v>0.007672970383859556</v>
       </c>
       <c r="G2">
-        <v>0.05766456892142836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04895374879173892</v>
+      </c>
+      <c r="H2">
+        <v>-0.05089546264525326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09380491998968407</v>
+        <v>0.08066770422883897</v>
       </c>
       <c r="C3">
-        <v>0.01656040858853577</v>
+        <v>0.01122500591393313</v>
       </c>
       <c r="D3">
-        <v>0.07401034730936962</v>
+        <v>-0.03064725062240829</v>
       </c>
       <c r="E3">
-        <v>0.06080819900852544</v>
+        <v>0.00434056936002998</v>
       </c>
       <c r="F3">
-        <v>0.393579860290134</v>
+        <v>-0.01293348303954792</v>
       </c>
       <c r="G3">
-        <v>0.1359395406897617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1729974824066509</v>
+      </c>
+      <c r="H3">
+        <v>-0.1678225541715509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03849244484225749</v>
+        <v>0.04473917061337155</v>
       </c>
       <c r="C4">
-        <v>-0.008476828825925443</v>
+        <v>-0.006125935630798476</v>
       </c>
       <c r="D4">
-        <v>-0.01577196791577343</v>
+        <v>-0.04798516925662882</v>
       </c>
       <c r="E4">
-        <v>-0.04831628909975809</v>
+        <v>-0.02060455061255117</v>
       </c>
       <c r="F4">
-        <v>0.07991345608539782</v>
+        <v>0.05483900870548124</v>
       </c>
       <c r="G4">
-        <v>0.0493286604867417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03259276736240695</v>
+      </c>
+      <c r="H4">
+        <v>-0.05718203405770574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02101087525900334</v>
+        <v>0.02543822907321867</v>
       </c>
       <c r="C6">
-        <v>-0.01135244925376607</v>
+        <v>-0.004643418535034546</v>
       </c>
       <c r="D6">
-        <v>0.008199151570208561</v>
+        <v>-0.05183382245812836</v>
       </c>
       <c r="E6">
-        <v>-0.01811099183764887</v>
+        <v>-0.004997873278469982</v>
       </c>
       <c r="F6">
-        <v>0.02686149826727112</v>
+        <v>0.03187320136883567</v>
       </c>
       <c r="G6">
-        <v>-0.001456199738126463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.007040267562245362</v>
+      </c>
+      <c r="H6">
+        <v>-0.06366673111377326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02020616205644038</v>
+        <v>0.02152731265570242</v>
       </c>
       <c r="C7">
-        <v>-0.0008264817247617284</v>
+        <v>-0.003425160833202736</v>
       </c>
       <c r="D7">
-        <v>0.0152049215873361</v>
+        <v>-0.02768792564512153</v>
       </c>
       <c r="E7">
-        <v>-0.02650661987000758</v>
+        <v>-0.04315221950945546</v>
       </c>
       <c r="F7">
-        <v>0.05229652733735185</v>
+        <v>0.008424478363737669</v>
       </c>
       <c r="G7">
-        <v>0.06231980937896794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0216302997099602</v>
+      </c>
+      <c r="H7">
+        <v>-0.03896862116551431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01716012444946602</v>
+        <v>0.007287244694596403</v>
       </c>
       <c r="C8">
-        <v>-0.01188441320628494</v>
+        <v>0.001833521161725568</v>
       </c>
       <c r="D8">
-        <v>0.006350632533716778</v>
+        <v>-0.01238209604272122</v>
       </c>
       <c r="E8">
-        <v>-0.03679230941591114</v>
+        <v>-0.00748075337928796</v>
       </c>
       <c r="F8">
-        <v>0.1040989537159661</v>
+        <v>0.02255846756081212</v>
       </c>
       <c r="G8">
-        <v>0.05385389604018168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04236260608693573</v>
+      </c>
+      <c r="H8">
+        <v>-0.04640775764546977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03163377357746218</v>
+        <v>0.03610524373672323</v>
       </c>
       <c r="C9">
-        <v>-0.01231040305028984</v>
+        <v>-0.001705464620386667</v>
       </c>
       <c r="D9">
-        <v>-0.005239708324824531</v>
+        <v>-0.03663600392891429</v>
       </c>
       <c r="E9">
-        <v>-0.03539613130101132</v>
+        <v>-0.00997250141791582</v>
       </c>
       <c r="F9">
-        <v>0.09230749214178395</v>
+        <v>0.03001961001737611</v>
       </c>
       <c r="G9">
-        <v>0.05741484536538972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04195699592424396</v>
+      </c>
+      <c r="H9">
+        <v>-0.05693734871992206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03332963607394877</v>
+        <v>0.1048053491487724</v>
       </c>
       <c r="C10">
-        <v>0.07457221898152948</v>
+        <v>0.02494043453632882</v>
       </c>
       <c r="D10">
-        <v>-0.07876337972365752</v>
+        <v>0.1554093021562111</v>
       </c>
       <c r="E10">
-        <v>0.1105885503783323</v>
+        <v>0.001645927716915213</v>
       </c>
       <c r="F10">
-        <v>0.0492836760540768</v>
+        <v>-0.04166675147120766</v>
       </c>
       <c r="G10">
-        <v>-0.00986424820654834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03043015811332524</v>
+      </c>
+      <c r="H10">
+        <v>-0.01055284330767453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03230668477881685</v>
+        <v>0.02088368387756976</v>
       </c>
       <c r="C11">
-        <v>-0.02159605322593009</v>
+        <v>0.007773168575327951</v>
       </c>
       <c r="D11">
-        <v>0.01666990361708582</v>
+        <v>-0.04031340118563168</v>
       </c>
       <c r="E11">
-        <v>-0.02681471872104204</v>
+        <v>0.001107660590269322</v>
       </c>
       <c r="F11">
-        <v>0.04762770423638382</v>
+        <v>0.01242997060044464</v>
       </c>
       <c r="G11">
-        <v>0.02129400456951256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02240349214362577</v>
+      </c>
+      <c r="H11">
+        <v>-0.04664329459290752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04093198297207799</v>
+        <v>0.0265323476630879</v>
       </c>
       <c r="C12">
-        <v>-0.0236801534689464</v>
+        <v>0.005019349981995732</v>
       </c>
       <c r="D12">
-        <v>0.009972696531796674</v>
+        <v>-0.04078092599698908</v>
       </c>
       <c r="E12">
-        <v>-0.03659955213752026</v>
+        <v>-0.00823270057674814</v>
       </c>
       <c r="F12">
-        <v>0.03237516903443525</v>
+        <v>0.01761013143405715</v>
       </c>
       <c r="G12">
-        <v>0.005025423722804866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.006334918103741607</v>
+      </c>
+      <c r="H12">
+        <v>-0.01992502332458298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01343239818409699</v>
+        <v>0.02609471128752191</v>
       </c>
       <c r="C13">
-        <v>-0.02008846151364698</v>
+        <v>-0.01476439504288628</v>
       </c>
       <c r="D13">
-        <v>-0.00298843036247549</v>
+        <v>-0.000639620576290708</v>
       </c>
       <c r="E13">
-        <v>0.004686459345581744</v>
+        <v>0.0107766498333821</v>
       </c>
       <c r="F13">
-        <v>0.07919992716816553</v>
+        <v>0.01756275009902714</v>
       </c>
       <c r="G13">
-        <v>0.04050810760263786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05067213614553444</v>
+      </c>
+      <c r="H13">
+        <v>-0.06703231401383998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01475334662563503</v>
+        <v>0.0178238641244938</v>
       </c>
       <c r="C14">
-        <v>-0.00101260451260257</v>
+        <v>-0.001075723812522269</v>
       </c>
       <c r="D14">
-        <v>-0.004449341337403263</v>
+        <v>-0.00597243904806988</v>
       </c>
       <c r="E14">
-        <v>-0.03621775696377173</v>
+        <v>-0.01422440888008762</v>
       </c>
       <c r="F14">
-        <v>0.06030317708728451</v>
+        <v>0.0172233261344081</v>
       </c>
       <c r="G14">
-        <v>0.06597798512093116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04119910196092785</v>
+      </c>
+      <c r="H14">
+        <v>-0.01168959144283092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02568295355504438</v>
+        <v>0.02248447078759543</v>
       </c>
       <c r="C16">
-        <v>-0.02430384179757502</v>
+        <v>0.008309465995295423</v>
       </c>
       <c r="D16">
-        <v>0.01307552378484883</v>
+        <v>-0.03595733010384285</v>
       </c>
       <c r="E16">
-        <v>-0.02157088551397204</v>
+        <v>-0.002440353077755737</v>
       </c>
       <c r="F16">
-        <v>0.05484449413746004</v>
+        <v>0.01858244819854184</v>
       </c>
       <c r="G16">
-        <v>0.0226440040207923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02033949743318597</v>
+      </c>
+      <c r="H16">
+        <v>-0.03774411379267386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04547641030211804</v>
+        <v>0.03411206236119064</v>
       </c>
       <c r="C19">
-        <v>-0.01841008449067164</v>
+        <v>-0.001213996950680189</v>
       </c>
       <c r="D19">
-        <v>0.01283113179969885</v>
+        <v>-0.02248424257967846</v>
       </c>
       <c r="E19">
-        <v>-0.03180169505899752</v>
+        <v>-0.004933418871191267</v>
       </c>
       <c r="F19">
-        <v>0.1119347212117906</v>
+        <v>0.02574875134849878</v>
       </c>
       <c r="G19">
-        <v>0.02460617088888111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05539908702579462</v>
+      </c>
+      <c r="H19">
+        <v>-0.07278892453995618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0009851770054653585</v>
+        <v>0.01072198215179891</v>
       </c>
       <c r="C20">
-        <v>-0.004859848813487197</v>
+        <v>-0.006530229956866695</v>
       </c>
       <c r="D20">
-        <v>-0.004889856866659976</v>
+        <v>-0.009021552277633765</v>
       </c>
       <c r="E20">
-        <v>-0.02913352288069213</v>
+        <v>-0.00455085685548332</v>
       </c>
       <c r="F20">
-        <v>0.07444346752551494</v>
+        <v>0.01789547412754361</v>
       </c>
       <c r="G20">
-        <v>0.06773882382137858</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04646435167945839</v>
+      </c>
+      <c r="H20">
+        <v>-0.02223044210923641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006182406963149505</v>
+        <v>0.0160827634950232</v>
       </c>
       <c r="C21">
-        <v>0.01543901820530432</v>
+        <v>-0.00826567120837208</v>
       </c>
       <c r="D21">
-        <v>0.02100447936072902</v>
+        <v>-0.01233924970301727</v>
       </c>
       <c r="E21">
-        <v>-0.02485933868691937</v>
+        <v>-0.0193917696313571</v>
       </c>
       <c r="F21">
-        <v>0.05606240120888133</v>
+        <v>0.01083539937834867</v>
       </c>
       <c r="G21">
-        <v>0.02364477105732479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04828070938255244</v>
+      </c>
+      <c r="H21">
+        <v>-0.05013978213871775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02911729799208293</v>
+        <v>0.01944855569989777</v>
       </c>
       <c r="C24">
-        <v>-0.02359498114760992</v>
+        <v>0.002611771995812016</v>
       </c>
       <c r="D24">
-        <v>-0.0002410801340279427</v>
+        <v>-0.03583779905042433</v>
       </c>
       <c r="E24">
-        <v>-0.009658743828265343</v>
+        <v>-0.0004478300073313212</v>
       </c>
       <c r="F24">
-        <v>0.04598558939788947</v>
+        <v>0.01323939207731347</v>
       </c>
       <c r="G24">
-        <v>0.02030627718149267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01425889824055933</v>
+      </c>
+      <c r="H24">
+        <v>-0.04570417335390547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02994071559218531</v>
+        <v>0.03004782278937641</v>
       </c>
       <c r="C25">
-        <v>-0.01522223025944719</v>
+        <v>0.0005474115649234661</v>
       </c>
       <c r="D25">
-        <v>0.01654514705719943</v>
+        <v>-0.03594125808051592</v>
       </c>
       <c r="E25">
-        <v>-0.0284298607906652</v>
+        <v>-0.004587976712886101</v>
       </c>
       <c r="F25">
-        <v>0.0520905968026437</v>
+        <v>0.02009770394603143</v>
       </c>
       <c r="G25">
-        <v>0.006954879184303107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01901474208972658</v>
+      </c>
+      <c r="H25">
+        <v>-0.04534642454011849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02054606145786664</v>
+        <v>0.01927245958612377</v>
       </c>
       <c r="C26">
-        <v>-0.008281894640134369</v>
+        <v>-0.01802002203436132</v>
       </c>
       <c r="D26">
-        <v>0.0265533104281522</v>
+        <v>-0.002329596807352877</v>
       </c>
       <c r="E26">
-        <v>-0.00114053483570598</v>
+        <v>0.001079641545886117</v>
       </c>
       <c r="F26">
-        <v>0.0717583837377959</v>
+        <v>0.001696976234837404</v>
       </c>
       <c r="G26">
-        <v>0.04585531319097694</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03222199490715604</v>
+      </c>
+      <c r="H26">
+        <v>-0.02195957417189098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06047753992062137</v>
+        <v>0.0233131738189709</v>
       </c>
       <c r="C27">
-        <v>-0.02121063224014413</v>
+        <v>0.00809627211088253</v>
       </c>
       <c r="D27">
-        <v>-0.02509693030169368</v>
+        <v>-0.0157623228446512</v>
       </c>
       <c r="E27">
-        <v>-0.04126755731348201</v>
+        <v>-0.004068450745666172</v>
       </c>
       <c r="F27">
-        <v>0.059601651066032</v>
+        <v>0.01596336502986685</v>
       </c>
       <c r="G27">
-        <v>0.04374653198130258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01634537920926596</v>
+      </c>
+      <c r="H27">
+        <v>-0.002844665764945048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05173902317860087</v>
+        <v>0.1529796621033332</v>
       </c>
       <c r="C28">
-        <v>0.09057168459313124</v>
+        <v>0.02327947077211507</v>
       </c>
       <c r="D28">
-        <v>-0.1207844362535829</v>
+        <v>0.2199366899139148</v>
       </c>
       <c r="E28">
-        <v>0.1448292612317</v>
+        <v>-0.002162310279030875</v>
       </c>
       <c r="F28">
-        <v>0.04726795922786659</v>
+        <v>-0.04293634138032299</v>
       </c>
       <c r="G28">
-        <v>0.01925284328753464</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01559160661576257</v>
+      </c>
+      <c r="H28">
+        <v>0.009477714961694656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02044742337045654</v>
+        <v>0.02137043108921945</v>
       </c>
       <c r="C29">
-        <v>0.001575959736312219</v>
+        <v>0.0004721759454691019</v>
       </c>
       <c r="D29">
-        <v>-0.004515489592807079</v>
+        <v>-0.006551363307198305</v>
       </c>
       <c r="E29">
-        <v>-0.0504447750287912</v>
+        <v>-0.01469825278249485</v>
       </c>
       <c r="F29">
-        <v>0.05193717582098385</v>
+        <v>0.0186885393314312</v>
       </c>
       <c r="G29">
-        <v>0.05547560597245067</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0394660753315083</v>
+      </c>
+      <c r="H29">
+        <v>-0.004014850541454562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08693183745511601</v>
+        <v>0.05053141617080856</v>
       </c>
       <c r="C30">
-        <v>-0.05448685229790312</v>
+        <v>-0.006492127328641812</v>
       </c>
       <c r="D30">
-        <v>0.003642203587412878</v>
+        <v>-0.07047284700127492</v>
       </c>
       <c r="E30">
-        <v>-0.06831917618238359</v>
+        <v>0.03247170105280419</v>
       </c>
       <c r="F30">
-        <v>0.0987584079970483</v>
+        <v>0.05092087792402884</v>
       </c>
       <c r="G30">
-        <v>0.05594030282450118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.04519704327185597</v>
+      </c>
+      <c r="H30">
+        <v>-0.06573117099364799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05575680611004352</v>
+        <v>0.0524746046761863</v>
       </c>
       <c r="C31">
-        <v>-0.03045739527937376</v>
+        <v>0.01216131127525445</v>
       </c>
       <c r="D31">
-        <v>0.01033596212594951</v>
+        <v>-0.02245255851257875</v>
       </c>
       <c r="E31">
-        <v>-0.002675063446582568</v>
+        <v>0.0050205778187585</v>
       </c>
       <c r="F31">
-        <v>0.04751225441755084</v>
+        <v>0.01076411312740794</v>
       </c>
       <c r="G31">
-        <v>0.06857723036968794</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01868451419633475</v>
+      </c>
+      <c r="H31">
+        <v>-0.007879913482821651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01745957759028585</v>
+        <v>0.01000329227379653</v>
       </c>
       <c r="C32">
-        <v>-0.01309740262736175</v>
+        <v>0.01250577601317478</v>
       </c>
       <c r="D32">
-        <v>0.02083796131412774</v>
+        <v>-0.005586439954414316</v>
       </c>
       <c r="E32">
-        <v>-0.07350584395143675</v>
+        <v>-0.02956035004751598</v>
       </c>
       <c r="F32">
-        <v>0.07994181883523438</v>
+        <v>0.04069986170921921</v>
       </c>
       <c r="G32">
-        <v>0.05310583784317908</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.0245306671352058</v>
+      </c>
+      <c r="H32">
+        <v>-0.06023107126921053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04510983520013819</v>
+        <v>0.0392732350052333</v>
       </c>
       <c r="C33">
-        <v>-0.02532920036207025</v>
+        <v>0.0004379429557505804</v>
       </c>
       <c r="D33">
-        <v>0.03948055250801029</v>
+        <v>-0.03145673577850398</v>
       </c>
       <c r="E33">
-        <v>-0.02368174267868575</v>
+        <v>0.02297594493438279</v>
       </c>
       <c r="F33">
-        <v>0.08897361847163411</v>
+        <v>0.00524915776598214</v>
       </c>
       <c r="G33">
-        <v>0.06489853705627469</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04338634387867353</v>
+      </c>
+      <c r="H33">
+        <v>-0.04351734408496238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02854832856014613</v>
+        <v>0.02541445014344594</v>
       </c>
       <c r="C34">
-        <v>-0.02378118478848029</v>
+        <v>0.01606927666433065</v>
       </c>
       <c r="D34">
-        <v>0.01051615720552609</v>
+        <v>-0.03694673586429488</v>
       </c>
       <c r="E34">
-        <v>-0.02806213508442991</v>
+        <v>-0.008876241280323655</v>
       </c>
       <c r="F34">
-        <v>0.05831661396879147</v>
+        <v>0.02028446855947571</v>
       </c>
       <c r="G34">
-        <v>0.01094895092041306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0155682586051348</v>
+      </c>
+      <c r="H34">
+        <v>-0.03853786012291237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01417707993679524</v>
+        <v>0.02038114212154883</v>
       </c>
       <c r="C36">
-        <v>0.001333034838336171</v>
+        <v>-0.00478622824830123</v>
       </c>
       <c r="D36">
-        <v>0.002589535229377931</v>
+        <v>-0.001600971524082666</v>
       </c>
       <c r="E36">
-        <v>-0.02671512576343082</v>
+        <v>-0.007399159992076019</v>
       </c>
       <c r="F36">
-        <v>0.03541978460025488</v>
+        <v>0.005566034538212652</v>
       </c>
       <c r="G36">
-        <v>0.03638214455863022</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01760616284994559</v>
+      </c>
+      <c r="H36">
+        <v>-0.01274861411099738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0003161892208509666</v>
+        <v>0.0259509477330346</v>
       </c>
       <c r="C38">
-        <v>0.01570140438498998</v>
+        <v>0.01626464219471898</v>
       </c>
       <c r="D38">
-        <v>0.01117138716034464</v>
+        <v>-0.006625420879873822</v>
       </c>
       <c r="E38">
-        <v>0.02685600549124413</v>
+        <v>0.0005997781526555089</v>
       </c>
       <c r="F38">
-        <v>0.0376619129299775</v>
+        <v>0.01089962793202961</v>
       </c>
       <c r="G38">
-        <v>0.01132932883604996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01808378928105489</v>
+      </c>
+      <c r="H38">
+        <v>-0.04030699009761695</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03527522722349167</v>
+        <v>0.01743933160219377</v>
       </c>
       <c r="C39">
-        <v>-0.0452802803830275</v>
+        <v>0.0006662668215407051</v>
       </c>
       <c r="D39">
-        <v>0.01637865780200195</v>
+        <v>-0.07809631151067407</v>
       </c>
       <c r="E39">
-        <v>-0.03130590266998795</v>
+        <v>0.004007699515185387</v>
       </c>
       <c r="F39">
-        <v>0.06868962658010157</v>
+        <v>0.0234839149635266</v>
       </c>
       <c r="G39">
-        <v>0.0258753057760091</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03321587982518071</v>
+      </c>
+      <c r="H39">
+        <v>-0.07423616769980518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03156239506029276</v>
+        <v>0.03021229804150184</v>
       </c>
       <c r="C40">
-        <v>-0.06862336478069617</v>
+        <v>-0.0001470244821356462</v>
       </c>
       <c r="D40">
-        <v>-0.00290442496930394</v>
+        <v>-0.02132446624548874</v>
       </c>
       <c r="E40">
-        <v>0.009519664935119512</v>
+        <v>0.02386428938248094</v>
       </c>
       <c r="F40">
-        <v>0.0766463792453369</v>
+        <v>0.03264687973682154</v>
       </c>
       <c r="G40">
-        <v>0.05131945150082885</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01808613750076857</v>
+      </c>
+      <c r="H40">
+        <v>-0.06652471890527578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001294594731240495</v>
+        <v>0.01172046246955985</v>
       </c>
       <c r="C41">
-        <v>0.003037862675173756</v>
+        <v>-0.0008049795826412618</v>
       </c>
       <c r="D41">
-        <v>0.009298694738409627</v>
+        <v>0.01243833015631749</v>
       </c>
       <c r="E41">
-        <v>-0.005685669983885067</v>
+        <v>0.001249994833009084</v>
       </c>
       <c r="F41">
-        <v>0.01286511834439976</v>
+        <v>-0.001739430141675668</v>
       </c>
       <c r="G41">
-        <v>0.0558655354458403</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.007005975048201449</v>
+      </c>
+      <c r="H41">
+        <v>0.005571774637267914</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3902399451387568</v>
+        <v>0.1880071436507298</v>
       </c>
       <c r="C42">
-        <v>0.3545009987182389</v>
+        <v>-0.07404953994777219</v>
       </c>
       <c r="D42">
-        <v>0.694354920719654</v>
+        <v>-0.3159946210783592</v>
       </c>
       <c r="E42">
-        <v>0.32371135236369</v>
+        <v>0.1709985558816133</v>
       </c>
       <c r="F42">
-        <v>-0.2697391216210089</v>
+        <v>-0.8928946801967373</v>
       </c>
       <c r="G42">
-        <v>0.1578129743664937</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1159088552859929</v>
+      </c>
+      <c r="H42">
+        <v>0.03743981368494623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.002052006527163119</v>
+        <v>0.01407973215350091</v>
       </c>
       <c r="C43">
-        <v>0.00705572870034727</v>
+        <v>-0.001219560600862746</v>
       </c>
       <c r="D43">
-        <v>0.01514832934109441</v>
+        <v>0.01371043724692324</v>
       </c>
       <c r="E43">
-        <v>-0.005026973152620234</v>
+        <v>0.004082572295389804</v>
       </c>
       <c r="F43">
-        <v>0.02947654925170529</v>
+        <v>-0.006691616876861917</v>
       </c>
       <c r="G43">
-        <v>0.05309381313593543</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.006587625374482239</v>
+      </c>
+      <c r="H43">
+        <v>-0.006415910319058213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01346743144333506</v>
+        <v>0.01700682569202481</v>
       </c>
       <c r="C44">
-        <v>0.01049559228889087</v>
+        <v>0.001977874508296349</v>
       </c>
       <c r="D44">
-        <v>0.01424624286871752</v>
+        <v>-0.02567618305915854</v>
       </c>
       <c r="E44">
-        <v>-0.00954793529714117</v>
+        <v>-0.00679577929962725</v>
       </c>
       <c r="F44">
-        <v>0.1101765253664275</v>
+        <v>0.001549386893749009</v>
       </c>
       <c r="G44">
-        <v>0.09292975677384059</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.036821798380236</v>
+      </c>
+      <c r="H44">
+        <v>-0.06402034929001175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01897231964586772</v>
+        <v>0.01749563652563519</v>
       </c>
       <c r="C46">
-        <v>-0.01268001427825559</v>
+        <v>-0.004759449057012848</v>
       </c>
       <c r="D46">
-        <v>0.02269278443881475</v>
+        <v>-0.01258221085617903</v>
       </c>
       <c r="E46">
-        <v>-0.03861016843397749</v>
+        <v>-0.001198495596618897</v>
       </c>
       <c r="F46">
-        <v>0.06801792716589361</v>
+        <v>0.01618231303786757</v>
       </c>
       <c r="G46">
-        <v>0.07009775967754008</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0480380739808157</v>
+      </c>
+      <c r="H46">
+        <v>-0.01333437137366635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09343705962706657</v>
+        <v>0.0745027790329888</v>
       </c>
       <c r="C47">
-        <v>-0.03433640302686246</v>
+        <v>0.02754045643392044</v>
       </c>
       <c r="D47">
-        <v>-0.003798655024416493</v>
+        <v>-0.04651891114533755</v>
       </c>
       <c r="E47">
-        <v>-0.02550809105434031</v>
+        <v>0.0005652699661897544</v>
       </c>
       <c r="F47">
-        <v>0.03127976127118626</v>
+        <v>0.02160140896764575</v>
       </c>
       <c r="G47">
-        <v>0.08827716631008657</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.00821496106939246</v>
+      </c>
+      <c r="H47">
+        <v>0.02135105497891975</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01494203122462988</v>
+        <v>0.0222507693541922</v>
       </c>
       <c r="C48">
-        <v>-0.006213167529233408</v>
+        <v>0.005737020992057904</v>
       </c>
       <c r="D48">
-        <v>0.01570912958707169</v>
+        <v>-0.007278428502669426</v>
       </c>
       <c r="E48">
-        <v>-0.016301794579952</v>
+        <v>-0.0009501190275917748</v>
       </c>
       <c r="F48">
-        <v>0.05200114756909974</v>
+        <v>0.008936014180776081</v>
       </c>
       <c r="G48">
-        <v>0.0293304053166374</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02454179528113783</v>
+      </c>
+      <c r="H48">
+        <v>-0.02051880472081499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08419555198660271</v>
+        <v>0.07129725394222024</v>
       </c>
       <c r="C50">
-        <v>-0.04088718939611478</v>
+        <v>0.02432221086000639</v>
       </c>
       <c r="D50">
-        <v>0.01890016355027393</v>
+        <v>-0.04530610514903642</v>
       </c>
       <c r="E50">
-        <v>-0.02713195306667641</v>
+        <v>-0.01268988589404795</v>
       </c>
       <c r="F50">
-        <v>0.05592277628165317</v>
+        <v>0.01748029492984386</v>
       </c>
       <c r="G50">
-        <v>0.04960207072740055</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01122894206915094</v>
+      </c>
+      <c r="H50">
+        <v>0.001189537983289605</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01644315100078903</v>
+        <v>0.01860379844942</v>
       </c>
       <c r="C51">
-        <v>0.0231479160785468</v>
+        <v>-0.002156657829194263</v>
       </c>
       <c r="D51">
-        <v>0.004372786800592944</v>
+        <v>0.006166486196297614</v>
       </c>
       <c r="E51">
-        <v>0.009567701799363804</v>
+        <v>-0.007707779908992125</v>
       </c>
       <c r="F51">
-        <v>0.1154278633548713</v>
+        <v>-0.007293881972200718</v>
       </c>
       <c r="G51">
-        <v>0.05264540805742972</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04867571916727272</v>
+      </c>
+      <c r="H51">
+        <v>-0.05687744909548671</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09555752659563765</v>
+        <v>0.09040600771317475</v>
       </c>
       <c r="C53">
-        <v>-0.05706201684185495</v>
+        <v>0.03345301191851949</v>
       </c>
       <c r="D53">
-        <v>0.005659123412864978</v>
+        <v>-0.08100111293384814</v>
       </c>
       <c r="E53">
-        <v>-0.04233755018081523</v>
+        <v>-0.00123230065517486</v>
       </c>
       <c r="F53">
-        <v>-0.04147757179975883</v>
+        <v>0.04247071212312162</v>
       </c>
       <c r="G53">
-        <v>0.02805928200042094</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04803546853177959</v>
+      </c>
+      <c r="H53">
+        <v>0.0454894350020079</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01897269395564051</v>
+        <v>0.02571324835211586</v>
       </c>
       <c r="C54">
-        <v>-0.003222288927980171</v>
+        <v>0.01014289132078464</v>
       </c>
       <c r="D54">
-        <v>-0.01243472531431595</v>
+        <v>0.0121444070169291</v>
       </c>
       <c r="E54">
-        <v>-0.03778231359106131</v>
+        <v>-0.008735918560344134</v>
       </c>
       <c r="F54">
-        <v>0.04950751544668996</v>
+        <v>0.009447838245852221</v>
       </c>
       <c r="G54">
-        <v>0.07522943390467061</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03933467183570609</v>
+      </c>
+      <c r="H54">
+        <v>0.00253356481769436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1030883551573614</v>
+        <v>0.07571595380604866</v>
       </c>
       <c r="C55">
-        <v>-0.02871307413994504</v>
+        <v>0.02928472243099565</v>
       </c>
       <c r="D55">
-        <v>-0.008383635056677576</v>
+        <v>-0.07746294710763468</v>
       </c>
       <c r="E55">
-        <v>-0.06941172311653612</v>
+        <v>-0.009307727367892002</v>
       </c>
       <c r="F55">
-        <v>-0.0302928281606239</v>
+        <v>0.035975184281211</v>
       </c>
       <c r="G55">
-        <v>0.06932437650257406</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02145284119238966</v>
+      </c>
+      <c r="H55">
+        <v>0.05365695178091002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1379962665685766</v>
+        <v>0.1243720199751335</v>
       </c>
       <c r="C56">
-        <v>-0.08160823784646787</v>
+        <v>0.05149569117959095</v>
       </c>
       <c r="D56">
-        <v>-0.02682673231933244</v>
+        <v>-0.1035289484320422</v>
       </c>
       <c r="E56">
-        <v>-0.06750303533373757</v>
+        <v>-0.000968963284907035</v>
       </c>
       <c r="F56">
-        <v>-0.08240787891408427</v>
+        <v>0.06648991686575308</v>
       </c>
       <c r="G56">
-        <v>-0.03778293855257651</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07976097851074009</v>
+      </c>
+      <c r="H56">
+        <v>0.05850884930225119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04575648314663872</v>
+        <v>0.03734481408596256</v>
       </c>
       <c r="C57">
-        <v>-0.009392520483669727</v>
+        <v>-0.01192751560442014</v>
       </c>
       <c r="D57">
-        <v>0.01217904647056353</v>
+        <v>-0.03015560572759817</v>
       </c>
       <c r="E57">
-        <v>0.0215062867070897</v>
+        <v>0.008434274097131269</v>
       </c>
       <c r="F57">
-        <v>0.07081869063853893</v>
+        <v>0.01719877694316707</v>
       </c>
       <c r="G57">
-        <v>0.06598114100861345</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05259945751506424</v>
+      </c>
+      <c r="H57">
+        <v>-0.04038241976266602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.224871734699298</v>
+        <v>0.1516815280599232</v>
       </c>
       <c r="C58">
-        <v>-0.09657087289322193</v>
+        <v>0.0425811105649998</v>
       </c>
       <c r="D58">
-        <v>0.07594421945582588</v>
+        <v>-0.1581505807399886</v>
       </c>
       <c r="E58">
-        <v>-0.1052027891216046</v>
+        <v>0.1677585411989896</v>
       </c>
       <c r="F58">
-        <v>0.39123776954806</v>
+        <v>0.009970317960801738</v>
       </c>
       <c r="G58">
-        <v>0.130812151050187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8471562435757257</v>
+      </c>
+      <c r="H58">
+        <v>0.3337805463385971</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05065749220064399</v>
+        <v>0.1661329926972597</v>
       </c>
       <c r="C59">
-        <v>0.0433759196293531</v>
+        <v>0.03253683782411167</v>
       </c>
       <c r="D59">
-        <v>-0.1205059668393911</v>
+        <v>0.2199193319141153</v>
       </c>
       <c r="E59">
-        <v>0.1336272943332333</v>
+        <v>0.01700003845406293</v>
       </c>
       <c r="F59">
-        <v>0.06378481335961042</v>
+        <v>-0.02104821611190277</v>
       </c>
       <c r="G59">
-        <v>-0.01062140243007585</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01953283770941471</v>
+      </c>
+      <c r="H59">
+        <v>-0.02732297594965346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.160438924142078</v>
+        <v>0.1794713213634488</v>
       </c>
       <c r="C60">
-        <v>-0.06552297247978231</v>
+        <v>0.03223091454907326</v>
       </c>
       <c r="D60">
-        <v>0.03465709236671143</v>
+        <v>-0.02360240259915747</v>
       </c>
       <c r="E60">
-        <v>0.08928276286659641</v>
+        <v>0.05000566773217427</v>
       </c>
       <c r="F60">
-        <v>0.1545032775539265</v>
+        <v>0.04107937701408333</v>
       </c>
       <c r="G60">
-        <v>-0.3211257381315714</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.0167276686582408</v>
+      </c>
+      <c r="H60">
+        <v>-0.3869769216912353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01962971715306794</v>
+        <v>0.02193272626897855</v>
       </c>
       <c r="C61">
-        <v>-0.01402783350380007</v>
+        <v>0.006129184345536894</v>
       </c>
       <c r="D61">
-        <v>0.01409503040364474</v>
+        <v>-0.04446379224122489</v>
       </c>
       <c r="E61">
-        <v>-0.01574853550397771</v>
+        <v>-0.003328578809804222</v>
       </c>
       <c r="F61">
-        <v>0.03702661737009968</v>
+        <v>0.0215600338551398</v>
       </c>
       <c r="G61">
-        <v>0.01645391581367781</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01706594187318303</v>
+      </c>
+      <c r="H61">
+        <v>-0.05473135039899158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01614312490944402</v>
+        <v>0.01293976947510515</v>
       </c>
       <c r="C63">
-        <v>-0.005876918767699366</v>
+        <v>-0.00277723333318425</v>
       </c>
       <c r="D63">
-        <v>0.02061490211361386</v>
+        <v>-0.01829623653592009</v>
       </c>
       <c r="E63">
-        <v>-0.03083619058399058</v>
+        <v>-0.004906117781783715</v>
       </c>
       <c r="F63">
-        <v>0.02162610619712773</v>
+        <v>0.0138005784240664</v>
       </c>
       <c r="G63">
-        <v>0.0678222254630407</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01645208064100548</v>
+      </c>
+      <c r="H63">
+        <v>-0.008792910727040059</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0334980571274198</v>
+        <v>0.03936955661927435</v>
       </c>
       <c r="C64">
-        <v>-0.001400244411842071</v>
+        <v>0.008301368072574226</v>
       </c>
       <c r="D64">
-        <v>0.0004090046687311881</v>
+        <v>-0.0370133041474286</v>
       </c>
       <c r="E64">
-        <v>-0.06110298895063308</v>
+        <v>-0.01210144756381087</v>
       </c>
       <c r="F64">
-        <v>0.02799990687301209</v>
+        <v>0.006697838915250218</v>
       </c>
       <c r="G64">
-        <v>0.04974311829114988</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-8.749919713157874e-05</v>
+      </c>
+      <c r="H64">
+        <v>-0.03772355372879227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02258772391779948</v>
+        <v>0.03048669359389852</v>
       </c>
       <c r="C65">
-        <v>-0.01333276001956212</v>
+        <v>-0.004911475996898009</v>
       </c>
       <c r="D65">
-        <v>0.009531676760255806</v>
+        <v>-0.0592055008301369</v>
       </c>
       <c r="E65">
-        <v>-0.01918402785872436</v>
+        <v>-0.007773043564467476</v>
       </c>
       <c r="F65">
-        <v>0.02178755238877685</v>
+        <v>0.03480669465332965</v>
       </c>
       <c r="G65">
-        <v>-0.006976857108113724</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.005755596839595688</v>
+      </c>
+      <c r="H65">
+        <v>-0.06893090711899523</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03239993086028826</v>
+        <v>0.02362552983924851</v>
       </c>
       <c r="C66">
-        <v>-0.0514380905185795</v>
+        <v>0.005296619850667816</v>
       </c>
       <c r="D66">
-        <v>0.02089960267560046</v>
+        <v>-0.09385527304629308</v>
       </c>
       <c r="E66">
-        <v>-0.03073107016012588</v>
+        <v>0.006334016031007667</v>
       </c>
       <c r="F66">
-        <v>0.05602621444155164</v>
+        <v>0.04179847440447522</v>
       </c>
       <c r="G66">
-        <v>0.01300340042719021</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02570073049416392</v>
+      </c>
+      <c r="H66">
+        <v>-0.076910772275746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01044688581232682</v>
+        <v>0.04522431105755854</v>
       </c>
       <c r="C67">
-        <v>0.003583580270380341</v>
+        <v>0.01882276963593777</v>
       </c>
       <c r="D67">
-        <v>0.00660800828844225</v>
+        <v>-0.005269569182617682</v>
       </c>
       <c r="E67">
-        <v>0.04076907122679552</v>
+        <v>0.005329762906280305</v>
       </c>
       <c r="F67">
-        <v>0.02373749149587822</v>
+        <v>0.0186506599467544</v>
       </c>
       <c r="G67">
-        <v>-0.004584028248484131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.002254996881267097</v>
+      </c>
+      <c r="H67">
+        <v>-0.03746800700566878</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07017954942830726</v>
+        <v>0.1601822753839826</v>
       </c>
       <c r="C68">
-        <v>0.0717022812110257</v>
+        <v>0.01073513126488234</v>
       </c>
       <c r="D68">
-        <v>-0.1469609632275448</v>
+        <v>0.2238760138319978</v>
       </c>
       <c r="E68">
-        <v>0.1260236527896593</v>
+        <v>0.0102806147632105</v>
       </c>
       <c r="F68">
-        <v>0.0589862370311211</v>
+        <v>-0.0479344227295954</v>
       </c>
       <c r="G68">
-        <v>-0.04977092307788197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03155515373286625</v>
+      </c>
+      <c r="H68">
+        <v>0.04046203533424871</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0675966424072975</v>
+        <v>0.06012156971729909</v>
       </c>
       <c r="C69">
-        <v>-0.04019717039939694</v>
+        <v>0.02725915609197301</v>
       </c>
       <c r="D69">
-        <v>-0.01083510113333548</v>
+        <v>-0.04259722909911624</v>
       </c>
       <c r="E69">
-        <v>-0.009440447897125405</v>
+        <v>0.002236998911979968</v>
       </c>
       <c r="F69">
-        <v>0.02313175119681935</v>
+        <v>0.03162643583853546</v>
       </c>
       <c r="G69">
-        <v>0.08120939403957224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01471606561326394</v>
+      </c>
+      <c r="H69">
+        <v>-0.005594742632045889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07529030059486914</v>
+        <v>0.1514037126364761</v>
       </c>
       <c r="C71">
-        <v>0.0793229592525027</v>
+        <v>0.01915794596877663</v>
       </c>
       <c r="D71">
-        <v>-0.1322456126755158</v>
+        <v>0.1943667693980312</v>
       </c>
       <c r="E71">
-        <v>0.1890895508039835</v>
+        <v>0.01661322294066665</v>
       </c>
       <c r="F71">
-        <v>0.05511783505739948</v>
+        <v>-0.0546456400908459</v>
       </c>
       <c r="G71">
-        <v>0.01432911748674386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02909677946384014</v>
+      </c>
+      <c r="H71">
+        <v>0.02325832317136499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.112698346655564</v>
+        <v>0.07916498939047734</v>
       </c>
       <c r="C72">
-        <v>-0.0733467044063424</v>
+        <v>0.03565125735998245</v>
       </c>
       <c r="D72">
-        <v>-0.03436244915327914</v>
+        <v>-0.07750421716804892</v>
       </c>
       <c r="E72">
-        <v>-0.02378674819801234</v>
+        <v>0.01542402975725009</v>
       </c>
       <c r="F72">
-        <v>0.1292628244975684</v>
+        <v>0.07621451562349829</v>
       </c>
       <c r="G72">
-        <v>-0.08697649747082138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03422289954214647</v>
+      </c>
+      <c r="H72">
+        <v>-0.1619683734685245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2352737401056201</v>
+        <v>0.2404027371817928</v>
       </c>
       <c r="C73">
-        <v>-0.08321170556689192</v>
+        <v>0.04069078403644465</v>
       </c>
       <c r="D73">
-        <v>0.03311424569787278</v>
+        <v>-0.08161758519741567</v>
       </c>
       <c r="E73">
-        <v>0.1990531144708642</v>
+        <v>0.08550381528985751</v>
       </c>
       <c r="F73">
-        <v>0.2408740098399403</v>
+        <v>0.04124527639347183</v>
       </c>
       <c r="G73">
-        <v>-0.4513685039352586</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.02660923306562861</v>
+      </c>
+      <c r="H73">
+        <v>-0.5095508063055589</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1374576072251843</v>
+        <v>0.1184943620656544</v>
       </c>
       <c r="C74">
-        <v>-0.03325291312302642</v>
+        <v>0.04888091740316037</v>
       </c>
       <c r="D74">
-        <v>-0.0157548477390843</v>
+        <v>-0.1083717117359724</v>
       </c>
       <c r="E74">
-        <v>-0.0374800002943099</v>
+        <v>-0.002652662495172162</v>
       </c>
       <c r="F74">
-        <v>-0.0673516721508374</v>
+        <v>0.05067987576082705</v>
       </c>
       <c r="G74">
-        <v>-0.01597143751364535</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06553954634061063</v>
+      </c>
+      <c r="H74">
+        <v>0.03244740704443703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2301024097181665</v>
+        <v>0.2265553406457252</v>
       </c>
       <c r="C75">
-        <v>-0.12891400858876</v>
+        <v>0.09528111332502742</v>
       </c>
       <c r="D75">
-        <v>-0.06336615527211607</v>
+        <v>-0.1750513506960799</v>
       </c>
       <c r="E75">
-        <v>-0.09841770453396406</v>
+        <v>0.01522779426583721</v>
       </c>
       <c r="F75">
-        <v>-0.09946985957218943</v>
+        <v>0.1274265173715303</v>
       </c>
       <c r="G75">
-        <v>-0.008386509179296151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1308435814941969</v>
+      </c>
+      <c r="H75">
+        <v>0.1321291942171615</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2694074135350486</v>
+        <v>0.1978992541250094</v>
       </c>
       <c r="C76">
-        <v>-0.1097599227928455</v>
+        <v>0.08755947863866562</v>
       </c>
       <c r="D76">
-        <v>-0.1091087621235077</v>
+        <v>-0.1614094347386812</v>
       </c>
       <c r="E76">
-        <v>-0.1447113176701823</v>
+        <v>-0.03245053643582001</v>
       </c>
       <c r="F76">
-        <v>-0.1558402378764594</v>
+        <v>0.1194005001217876</v>
       </c>
       <c r="G76">
-        <v>-0.01455558007232957</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1313686974682747</v>
+      </c>
+      <c r="H76">
+        <v>0.1345969366150313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1279695478243222</v>
+        <v>0.07060658717206682</v>
       </c>
       <c r="C77">
-        <v>-0.02386723513581799</v>
+        <v>0.008525397122350434</v>
       </c>
       <c r="D77">
-        <v>0.1004879503313059</v>
+        <v>-0.06368411903074511</v>
       </c>
       <c r="E77">
-        <v>-0.05280896409150549</v>
+        <v>0.00805208960292402</v>
       </c>
       <c r="F77">
-        <v>0.1805610882200333</v>
+        <v>-0.01006621442203322</v>
       </c>
       <c r="G77">
-        <v>0.192633798958701</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08802908504747159</v>
+      </c>
+      <c r="H77">
+        <v>-0.009658950602853308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07385851076017605</v>
+        <v>0.04094814446530153</v>
       </c>
       <c r="C78">
-        <v>-0.03836426623069817</v>
+        <v>0.00974747483272909</v>
       </c>
       <c r="D78">
-        <v>0.04643745998081202</v>
+        <v>-0.05273250924768153</v>
       </c>
       <c r="E78">
-        <v>-0.07514651638285003</v>
+        <v>-0.003206104388623517</v>
       </c>
       <c r="F78">
-        <v>0.1092885822614002</v>
+        <v>0.02661627663731849</v>
       </c>
       <c r="G78">
-        <v>0.02899364749249786</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.0558860966510949</v>
+      </c>
+      <c r="H78">
+        <v>-0.07569686829800495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1625805114776719</v>
+        <v>0.1377366110027143</v>
       </c>
       <c r="C80">
-        <v>0.7739271808381855</v>
+        <v>0.03181001473900347</v>
       </c>
       <c r="D80">
-        <v>-0.1534662670382571</v>
+        <v>-0.0656057996428043</v>
       </c>
       <c r="E80">
-        <v>-0.5354856739538227</v>
+        <v>-0.9537202367643427</v>
       </c>
       <c r="F80">
-        <v>0.07204682310609699</v>
+        <v>-0.1595324198207314</v>
       </c>
       <c r="G80">
-        <v>-0.1769472563381034</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1321355553727989</v>
+      </c>
+      <c r="H80">
+        <v>-0.01503631785116948</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1690307990706411</v>
+        <v>0.1482454056185302</v>
       </c>
       <c r="C81">
-        <v>-0.09467408351564029</v>
+        <v>0.06113919367085835</v>
       </c>
       <c r="D81">
-        <v>-0.0722042720836121</v>
+        <v>-0.1060686061887681</v>
       </c>
       <c r="E81">
-        <v>-0.08063160925789417</v>
+        <v>-0.007307918426614064</v>
       </c>
       <c r="F81">
-        <v>-0.1246009286457878</v>
+        <v>0.07973056226165312</v>
       </c>
       <c r="G81">
-        <v>-0.02481531828468807</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08875611687034141</v>
+      </c>
+      <c r="H81">
+        <v>0.09100775508016395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03931757278495466</v>
+        <v>0.03301805437844382</v>
       </c>
       <c r="C83">
-        <v>-0.0215871454532593</v>
+        <v>0.005516877113966658</v>
       </c>
       <c r="D83">
-        <v>0.03209224263475513</v>
+        <v>-0.02104445628713875</v>
       </c>
       <c r="E83">
-        <v>-0.01022456626730273</v>
+        <v>0.006635642056433261</v>
       </c>
       <c r="F83">
-        <v>0.05097892004697853</v>
+        <v>0.01129466628984038</v>
       </c>
       <c r="G83">
-        <v>0.03567390327044773</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04364499354924131</v>
+      </c>
+      <c r="H83">
+        <v>-0.04062617871462879</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.250872431623385</v>
+        <v>0.2160815908303647</v>
       </c>
       <c r="C85">
-        <v>-0.1086518625284995</v>
+        <v>0.07914233895519075</v>
       </c>
       <c r="D85">
-        <v>-0.07583994279299969</v>
+        <v>-0.1741415017213821</v>
       </c>
       <c r="E85">
-        <v>-0.1065565030999853</v>
+        <v>0.008670155087022215</v>
       </c>
       <c r="F85">
-        <v>-0.09513906411019414</v>
+        <v>0.1110613356359243</v>
       </c>
       <c r="G85">
-        <v>0.02995572752520808</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1471859356117815</v>
+      </c>
+      <c r="H85">
+        <v>0.09730175637402746</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.00614896260727617</v>
+        <v>0.02188713253352262</v>
       </c>
       <c r="C86">
-        <v>0.002407323714324751</v>
+        <v>-0.0005655271657883363</v>
       </c>
       <c r="D86">
-        <v>0.03413746673341274</v>
+        <v>-0.01340526667339396</v>
       </c>
       <c r="E86">
-        <v>-0.04219055031218416</v>
+        <v>0.005055254342324828</v>
       </c>
       <c r="F86">
-        <v>0.07045404810828705</v>
+        <v>-0.01087002063335885</v>
       </c>
       <c r="G86">
-        <v>0.02492550217213344</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0640847227447038</v>
+      </c>
+      <c r="H86">
+        <v>-0.08443644798064094</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03939443529060016</v>
+        <v>0.02550490986009241</v>
       </c>
       <c r="C87">
-        <v>0.009740093043743785</v>
+        <v>0.0006828023459776495</v>
       </c>
       <c r="D87">
-        <v>0.01434500193588615</v>
+        <v>-0.03491491563382423</v>
       </c>
       <c r="E87">
-        <v>-0.02310635202284043</v>
+        <v>-0.007584873473525283</v>
       </c>
       <c r="F87">
-        <v>0.1133355681921323</v>
+        <v>0.01014827556976518</v>
       </c>
       <c r="G87">
-        <v>0.03672796420502326</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07279257572438767</v>
+      </c>
+      <c r="H87">
+        <v>-0.07918235282281905</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.006320299714081187</v>
+        <v>0.03531757602682539</v>
       </c>
       <c r="C88">
-        <v>0.001545358968347481</v>
+        <v>-0.01237740848866425</v>
       </c>
       <c r="D88">
-        <v>-0.01088434361925467</v>
+        <v>-0.01024843991230534</v>
       </c>
       <c r="E88">
-        <v>-0.008642092990075781</v>
+        <v>-0.009659017507400258</v>
       </c>
       <c r="F88">
-        <v>0.001523572642643073</v>
+        <v>0.0116149413692602</v>
       </c>
       <c r="G88">
-        <v>0.04456415885160665</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.001700440236294683</v>
+      </c>
+      <c r="H88">
+        <v>-0.01577840178954477</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09554597228439206</v>
+        <v>0.2566869590717288</v>
       </c>
       <c r="C89">
-        <v>0.09924386286627714</v>
+        <v>0.02959504913801147</v>
       </c>
       <c r="D89">
-        <v>-0.1891505572152658</v>
+        <v>0.3498057787866021</v>
       </c>
       <c r="E89">
-        <v>0.2387824248308342</v>
+        <v>0.02638115929624721</v>
       </c>
       <c r="F89">
-        <v>0.09787478524588659</v>
+        <v>-0.05222887410074946</v>
       </c>
       <c r="G89">
-        <v>0.03166494867945067</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01891074047841548</v>
+      </c>
+      <c r="H89">
+        <v>0.009080042208884108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08755642767587812</v>
+        <v>0.2086147781694627</v>
       </c>
       <c r="C90">
-        <v>0.1511261755504056</v>
+        <v>0.02453184771959108</v>
       </c>
       <c r="D90">
-        <v>-0.2318166627876692</v>
+        <v>0.3121697379192357</v>
       </c>
       <c r="E90">
-        <v>0.2286639901632614</v>
+        <v>0.01807659128860247</v>
       </c>
       <c r="F90">
-        <v>0.05112487641887433</v>
+        <v>-0.07427746788768347</v>
       </c>
       <c r="G90">
-        <v>0.04228921274584471</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02255746438285013</v>
+      </c>
+      <c r="H90">
+        <v>0.06611566387737924</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3062332922810076</v>
+        <v>0.2297274588022828</v>
       </c>
       <c r="C91">
-        <v>-0.1455944611733721</v>
+        <v>0.09419976406447411</v>
       </c>
       <c r="D91">
-        <v>-0.06761606792779699</v>
+        <v>-0.1616835320908861</v>
       </c>
       <c r="E91">
-        <v>-0.09481708702360835</v>
+        <v>0.01370515741530372</v>
       </c>
       <c r="F91">
-        <v>-0.2254458471506548</v>
+        <v>0.112281378151872</v>
       </c>
       <c r="G91">
-        <v>-0.02082169147452506</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1590818933925838</v>
+      </c>
+      <c r="H91">
+        <v>0.1753369414509508</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1729658359191012</v>
+        <v>0.2571450625476232</v>
       </c>
       <c r="C92">
-        <v>0.1003813258916977</v>
+        <v>0.08809187180603878</v>
       </c>
       <c r="D92">
-        <v>-0.3895211269937005</v>
+        <v>0.2343780066373241</v>
       </c>
       <c r="E92">
-        <v>0.2132038090341366</v>
+        <v>0.007602144414360327</v>
       </c>
       <c r="F92">
-        <v>-0.125341153943563</v>
+        <v>0.00149556756703056</v>
       </c>
       <c r="G92">
-        <v>0.4741900972892002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.002626750523895851</v>
+      </c>
+      <c r="H92">
+        <v>0.1498442445458184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09863077617003027</v>
+        <v>0.2339628714265022</v>
       </c>
       <c r="C93">
-        <v>0.1582383627244825</v>
+        <v>0.03635564000583117</v>
       </c>
       <c r="D93">
-        <v>-0.280910837715338</v>
+        <v>0.3267607918109129</v>
       </c>
       <c r="E93">
-        <v>0.3376355741206085</v>
+        <v>0.04004753588911305</v>
       </c>
       <c r="F93">
-        <v>0.00785363711613867</v>
+        <v>-0.07753912837449704</v>
       </c>
       <c r="G93">
-        <v>-0.05219319218796616</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.01914602742831322</v>
+      </c>
+      <c r="H93">
+        <v>0.006337996847247345</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3051516257363793</v>
+        <v>0.2541834172645737</v>
       </c>
       <c r="C94">
-        <v>-0.1889331808523763</v>
+        <v>0.08438028369621221</v>
       </c>
       <c r="D94">
-        <v>-0.1465816282757097</v>
+        <v>-0.1592437662812866</v>
       </c>
       <c r="E94">
-        <v>-0.1313864575324517</v>
+        <v>0.02957603501970964</v>
       </c>
       <c r="F94">
-        <v>-0.1962830283234648</v>
+        <v>0.1610459519782766</v>
       </c>
       <c r="G94">
-        <v>-0.05889503759100313</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1467895663506931</v>
+      </c>
+      <c r="H94">
+        <v>0.2110371691100155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05976634475916116</v>
+        <v>0.05326519138571009</v>
       </c>
       <c r="C95">
-        <v>-0.05515353175713521</v>
+        <v>0.02837807006984244</v>
       </c>
       <c r="D95">
-        <v>0.07022095987805987</v>
+        <v>-0.08713783610051505</v>
       </c>
       <c r="E95">
-        <v>-0.04950701069034816</v>
+        <v>0.07829650688555131</v>
       </c>
       <c r="F95">
-        <v>0.01676022797379044</v>
+        <v>0.005206161599250154</v>
       </c>
       <c r="G95">
-        <v>0.1436654872576478</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.0454500731071703</v>
+      </c>
+      <c r="H95">
+        <v>-0.04623720554598826</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1787225751357419</v>
+        <v>0.1835688850905584</v>
       </c>
       <c r="C98">
-        <v>-0.02151657530574825</v>
+        <v>0.06296597030938325</v>
       </c>
       <c r="D98">
-        <v>0.03784919929178143</v>
+        <v>-0.04680063855684089</v>
       </c>
       <c r="E98">
-        <v>0.1241193322108896</v>
+        <v>0.04873495475203282</v>
       </c>
       <c r="F98">
-        <v>0.125910966854459</v>
+        <v>0.008848128369524732</v>
       </c>
       <c r="G98">
-        <v>-0.3708511452997802</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.05949255652346531</v>
+      </c>
+      <c r="H98">
+        <v>-0.3689098220733852</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.006303095633936327</v>
+        <v>0.01498282073868093</v>
       </c>
       <c r="C101">
-        <v>-0.01222154441179888</v>
+        <v>-0.001238829988597853</v>
       </c>
       <c r="D101">
-        <v>0.01501379236072739</v>
+        <v>-0.007522509270552419</v>
       </c>
       <c r="E101">
-        <v>-0.08954359473676729</v>
+        <v>-0.006625824592013603</v>
       </c>
       <c r="F101">
-        <v>0.1692456443255746</v>
+        <v>0.02428090714387367</v>
       </c>
       <c r="G101">
-        <v>0.1794237101365702</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1086267812149649</v>
+      </c>
+      <c r="H101">
+        <v>0.01935839526766053</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1112470204212069</v>
+        <v>0.1038538067180278</v>
       </c>
       <c r="C102">
-        <v>-0.06171033264594451</v>
+        <v>0.03056940980230906</v>
       </c>
       <c r="D102">
-        <v>-0.01426100055689065</v>
+        <v>-0.08380918928112045</v>
       </c>
       <c r="E102">
-        <v>-0.06737448696453356</v>
+        <v>0.001645047121956757</v>
       </c>
       <c r="F102">
-        <v>-0.0953886932842405</v>
+        <v>0.05678981269891822</v>
       </c>
       <c r="G102">
-        <v>0.0007468452162920743</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.08223405518415493</v>
+      </c>
+      <c r="H102">
+        <v>0.07076704009749657</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02174152076824531</v>
+        <v>0.01736205712025943</v>
       </c>
       <c r="C103">
-        <v>-0.02171948766427424</v>
+        <v>0.006023240181442973</v>
       </c>
       <c r="D103">
-        <v>0.003246779769914793</v>
+        <v>-0.01706035555841682</v>
       </c>
       <c r="E103">
-        <v>-0.02153956696527812</v>
+        <v>-0.009551745351877099</v>
       </c>
       <c r="F103">
-        <v>0.001373379067964172</v>
+        <v>0.01145066797360691</v>
       </c>
       <c r="G103">
-        <v>0.013572515436031</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.001790081587561772</v>
+      </c>
+      <c r="H103">
+        <v>0.01138156621163115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2359669915480264</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9556866091036547</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.02997467391340631</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02011826288028699</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1365740397192134</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.02280533139819053</v>
+      </c>
+      <c r="H104">
+        <v>0.04449694473026967</v>
       </c>
     </row>
   </sheetData>
